--- a/examples/sources/data/unsolved/scheduled/2019-03-18.xlsx
+++ b/examples/sources/data/unsolved/scheduled/2019-03-18.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo Reitano\Documents\GitHub\optaplanner-time\examples\sources\data\unsolved\scheduled\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C27DC70-ABE0-4E1B-894A-EE502E384C44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audiencias" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="171">
   <si>
     <t>Id</t>
   </si>
@@ -278,9 +284,6 @@
   </si>
   <si>
     <t xml:space="preserve">  Defensor Particular - DR. ROSSI</t>
-  </si>
-  <si>
-    <t>Funes Marilina (codef. 18va)</t>
   </si>
   <si>
     <t>Godoy Gabriela (codef. 8va.)</t>
@@ -535,11 +538,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,6 +606,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -649,7 +660,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -681,9 +692,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -715,6 +744,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -890,14 +937,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K159"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:XFD114"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,7 +981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>106155</v>
       </c>
@@ -964,10 +1013,10 @@
         <v>43546</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>106156</v>
       </c>
@@ -999,10 +1048,10 @@
         <v>43567</v>
       </c>
       <c r="K3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>106157</v>
       </c>
@@ -1034,10 +1083,10 @@
         <v>43563</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>106158</v>
       </c>
@@ -1069,10 +1118,10 @@
         <v>43572</v>
       </c>
       <c r="K5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>106160</v>
       </c>
@@ -1104,10 +1153,10 @@
         <v>43591</v>
       </c>
       <c r="K6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>106161</v>
       </c>
@@ -1139,10 +1188,10 @@
         <v>43570</v>
       </c>
       <c r="K7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>106162</v>
       </c>
@@ -1174,10 +1223,10 @@
         <v>43565</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>106163</v>
       </c>
@@ -1209,10 +1258,10 @@
         <v>43551</v>
       </c>
       <c r="K9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>106165</v>
       </c>
@@ -1244,10 +1293,10 @@
         <v>43559</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>106166</v>
       </c>
@@ -1279,10 +1328,10 @@
         <v>43567</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>106167</v>
       </c>
@@ -1314,10 +1363,10 @@
         <v>43593</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>106168</v>
       </c>
@@ -1349,10 +1398,10 @@
         <v>43572</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>106169</v>
       </c>
@@ -1384,10 +1433,10 @@
         <v>43558</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>106171</v>
       </c>
@@ -1419,10 +1468,10 @@
         <v>43572</v>
       </c>
       <c r="K15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>106172</v>
       </c>
@@ -1454,10 +1503,10 @@
         <v>43567</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>106173</v>
       </c>
@@ -1489,10 +1538,10 @@
         <v>43549</v>
       </c>
       <c r="K17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>106175</v>
       </c>
@@ -1524,10 +1573,10 @@
         <v>43553</v>
       </c>
       <c r="K18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>106176</v>
       </c>
@@ -1559,10 +1608,10 @@
         <v>43550</v>
       </c>
       <c r="K19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>106178</v>
       </c>
@@ -1594,10 +1643,10 @@
         <v>43564</v>
       </c>
       <c r="K20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>106179</v>
       </c>
@@ -1629,10 +1678,10 @@
         <v>43570</v>
       </c>
       <c r="K21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>106180</v>
       </c>
@@ -1664,10 +1713,10 @@
         <v>43593</v>
       </c>
       <c r="K22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>106181</v>
       </c>
@@ -1699,10 +1748,10 @@
         <v>43580</v>
       </c>
       <c r="K23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>106183</v>
       </c>
@@ -1734,10 +1783,10 @@
         <v>43585</v>
       </c>
       <c r="K24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>106184</v>
       </c>
@@ -1769,10 +1818,10 @@
         <v>43550</v>
       </c>
       <c r="K25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>106186</v>
       </c>
@@ -1804,10 +1853,10 @@
         <v>43550</v>
       </c>
       <c r="K26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>106187</v>
       </c>
@@ -1839,10 +1888,10 @@
         <v>43570</v>
       </c>
       <c r="K27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>106189</v>
       </c>
@@ -1874,10 +1923,10 @@
         <v>43585</v>
       </c>
       <c r="K28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>106191</v>
       </c>
@@ -1909,10 +1958,10 @@
         <v>43592</v>
       </c>
       <c r="K29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>106192</v>
       </c>
@@ -1944,10 +1993,10 @@
         <v>43550</v>
       </c>
       <c r="K30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>106193</v>
       </c>
@@ -1979,10 +2028,10 @@
         <v>43556</v>
       </c>
       <c r="K31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>106194</v>
       </c>
@@ -2014,10 +2063,10 @@
         <v>43565</v>
       </c>
       <c r="K32" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>106195</v>
       </c>
@@ -2049,10 +2098,10 @@
         <v>43549</v>
       </c>
       <c r="K33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>106196</v>
       </c>
@@ -2084,10 +2133,10 @@
         <v>43563</v>
       </c>
       <c r="K34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>106197</v>
       </c>
@@ -2119,10 +2168,10 @@
         <v>43594</v>
       </c>
       <c r="K35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>106198</v>
       </c>
@@ -2154,10 +2203,10 @@
         <v>43551</v>
       </c>
       <c r="K36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>106199</v>
       </c>
@@ -2189,10 +2238,10 @@
         <v>43577</v>
       </c>
       <c r="K37" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>106200</v>
       </c>
@@ -2224,10 +2273,10 @@
         <v>43565</v>
       </c>
       <c r="K38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>106201</v>
       </c>
@@ -2259,10 +2308,10 @@
         <v>43553</v>
       </c>
       <c r="K39" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>106202</v>
       </c>
@@ -2294,10 +2343,10 @@
         <v>43565</v>
       </c>
       <c r="K40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>106203</v>
       </c>
@@ -2329,10 +2378,10 @@
         <v>43544</v>
       </c>
       <c r="K41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>106204</v>
       </c>
@@ -2364,10 +2413,10 @@
         <v>43544</v>
       </c>
       <c r="K42" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>106205</v>
       </c>
@@ -2399,10 +2448,10 @@
         <v>43553</v>
       </c>
       <c r="K43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>106206</v>
       </c>
@@ -2434,10 +2483,10 @@
         <v>43552</v>
       </c>
       <c r="K44" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>106207</v>
       </c>
@@ -2469,10 +2518,10 @@
         <v>43553</v>
       </c>
       <c r="K45" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>106208</v>
       </c>
@@ -2504,10 +2553,10 @@
         <v>43545</v>
       </c>
       <c r="K46" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>106209</v>
       </c>
@@ -2539,10 +2588,10 @@
         <v>43552</v>
       </c>
       <c r="K47" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>106210</v>
       </c>
@@ -2574,10 +2623,10 @@
         <v>43572</v>
       </c>
       <c r="K48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>106211</v>
       </c>
@@ -2609,10 +2658,10 @@
         <v>43572</v>
       </c>
       <c r="K49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>106212</v>
       </c>
@@ -2644,10 +2693,10 @@
         <v>43577</v>
       </c>
       <c r="K50" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>106213</v>
       </c>
@@ -2679,10 +2728,10 @@
         <v>43552</v>
       </c>
       <c r="K51" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>106214</v>
       </c>
@@ -2714,10 +2763,10 @@
         <v>43552</v>
       </c>
       <c r="K52" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>106216</v>
       </c>
@@ -2749,10 +2798,10 @@
         <v>43552</v>
       </c>
       <c r="K53" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>106217</v>
       </c>
@@ -2784,10 +2833,10 @@
         <v>43572</v>
       </c>
       <c r="K54" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>106218</v>
       </c>
@@ -2819,10 +2868,10 @@
         <v>43552</v>
       </c>
       <c r="K55" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>106219</v>
       </c>
@@ -2854,10 +2903,10 @@
         <v>43552</v>
       </c>
       <c r="K56" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>106220</v>
       </c>
@@ -2889,10 +2938,10 @@
         <v>43579</v>
       </c>
       <c r="K57" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>106221</v>
       </c>
@@ -2924,10 +2973,10 @@
         <v>43552</v>
       </c>
       <c r="K58" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>106222</v>
       </c>
@@ -2959,10 +3008,10 @@
         <v>43563</v>
       </c>
       <c r="K59" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>106224</v>
       </c>
@@ -2994,10 +3043,10 @@
         <v>43553</v>
       </c>
       <c r="K60" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>106226</v>
       </c>
@@ -3029,10 +3078,10 @@
         <v>43556</v>
       </c>
       <c r="K61" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>106227</v>
       </c>
@@ -3064,10 +3113,10 @@
         <v>43545</v>
       </c>
       <c r="K62" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>106228</v>
       </c>
@@ -3099,10 +3148,10 @@
         <v>43558</v>
       </c>
       <c r="K63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>106230</v>
       </c>
@@ -3134,10 +3183,10 @@
         <v>43581</v>
       </c>
       <c r="K64" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>106231</v>
       </c>
@@ -3169,10 +3218,10 @@
         <v>43571</v>
       </c>
       <c r="K65" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>106232</v>
       </c>
@@ -3204,10 +3253,10 @@
         <v>43578</v>
       </c>
       <c r="K66" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>106233</v>
       </c>
@@ -3239,10 +3288,10 @@
         <v>43580</v>
       </c>
       <c r="K67" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>106234</v>
       </c>
@@ -3274,10 +3323,10 @@
         <v>43580</v>
       </c>
       <c r="K68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>106235</v>
       </c>
@@ -3309,10 +3358,10 @@
         <v>43566</v>
       </c>
       <c r="K69" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>106236</v>
       </c>
@@ -3344,10 +3393,10 @@
         <v>43580</v>
       </c>
       <c r="K70" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>106237</v>
       </c>
@@ -3379,10 +3428,10 @@
         <v>43544</v>
       </c>
       <c r="K71" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>106238</v>
       </c>
@@ -3414,10 +3463,10 @@
         <v>43585</v>
       </c>
       <c r="K72" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>106239</v>
       </c>
@@ -3449,10 +3498,10 @@
         <v>43579</v>
       </c>
       <c r="K73" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>106240</v>
       </c>
@@ -3484,10 +3533,10 @@
         <v>43578</v>
       </c>
       <c r="K74" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>106241</v>
       </c>
@@ -3519,10 +3568,10 @@
         <v>43565</v>
       </c>
       <c r="K75" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>106242</v>
       </c>
@@ -3554,10 +3603,10 @@
         <v>43560</v>
       </c>
       <c r="K76" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>106243</v>
       </c>
@@ -3589,10 +3638,10 @@
         <v>43567</v>
       </c>
       <c r="K77" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>106244</v>
       </c>
@@ -3624,10 +3673,10 @@
         <v>43552</v>
       </c>
       <c r="K78" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>106245</v>
       </c>
@@ -3659,10 +3708,10 @@
         <v>43567</v>
       </c>
       <c r="K79" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>106246</v>
       </c>
@@ -3694,10 +3743,10 @@
         <v>43567</v>
       </c>
       <c r="K80" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>106247</v>
       </c>
@@ -3729,10 +3778,10 @@
         <v>43579</v>
       </c>
       <c r="K81" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>106248</v>
       </c>
@@ -3764,10 +3813,10 @@
         <v>43588</v>
       </c>
       <c r="K82" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>106249</v>
       </c>
@@ -3799,10 +3848,10 @@
         <v>43592</v>
       </c>
       <c r="K83" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>106250</v>
       </c>
@@ -3834,10 +3883,10 @@
         <v>43550</v>
       </c>
       <c r="K84" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>106251</v>
       </c>
@@ -3869,10 +3918,10 @@
         <v>43579</v>
       </c>
       <c r="K85" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>106252</v>
       </c>
@@ -3904,10 +3953,10 @@
         <v>43570</v>
       </c>
       <c r="K86" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>106253</v>
       </c>
@@ -3939,10 +3988,10 @@
         <v>43545</v>
       </c>
       <c r="K87" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>106254</v>
       </c>
@@ -3974,10 +4023,10 @@
         <v>43544</v>
       </c>
       <c r="K88" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>106255</v>
       </c>
@@ -4009,10 +4058,10 @@
         <v>43546</v>
       </c>
       <c r="K89" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>106256</v>
       </c>
@@ -4044,10 +4093,10 @@
         <v>43580</v>
       </c>
       <c r="K90" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>106257</v>
       </c>
@@ -4079,10 +4128,10 @@
         <v>43545</v>
       </c>
       <c r="K91" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>106258</v>
       </c>
@@ -4114,10 +4163,10 @@
         <v>43579</v>
       </c>
       <c r="K92" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>106259</v>
       </c>
@@ -4149,10 +4198,10 @@
         <v>43544</v>
       </c>
       <c r="K93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>106260</v>
       </c>
@@ -4184,10 +4233,10 @@
         <v>43564</v>
       </c>
       <c r="K94" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>106261</v>
       </c>
@@ -4219,10 +4268,10 @@
         <v>43579</v>
       </c>
       <c r="K95" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>106262</v>
       </c>
@@ -4254,10 +4303,10 @@
         <v>43580</v>
       </c>
       <c r="K96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>106263</v>
       </c>
@@ -4289,10 +4338,10 @@
         <v>43580</v>
       </c>
       <c r="K97" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>106264</v>
       </c>
@@ -4324,10 +4373,10 @@
         <v>43545</v>
       </c>
       <c r="K98" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>106265</v>
       </c>
@@ -4359,10 +4408,10 @@
         <v>43579</v>
       </c>
       <c r="K99" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>106266</v>
       </c>
@@ -4394,10 +4443,10 @@
         <v>43544</v>
       </c>
       <c r="K100" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>106267</v>
       </c>
@@ -4429,10 +4478,10 @@
         <v>43579</v>
       </c>
       <c r="K101" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>106268</v>
       </c>
@@ -4464,10 +4513,10 @@
         <v>43579</v>
       </c>
       <c r="K102" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>106270</v>
       </c>
@@ -4499,10 +4548,10 @@
         <v>43579</v>
       </c>
       <c r="K103" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>106271</v>
       </c>
@@ -4534,10 +4583,10 @@
         <v>43579</v>
       </c>
       <c r="K104" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>106272</v>
       </c>
@@ -4569,10 +4618,10 @@
         <v>43544</v>
       </c>
       <c r="K105" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>106273</v>
       </c>
@@ -4604,10 +4653,10 @@
         <v>43543</v>
       </c>
       <c r="K106" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106276</v>
       </c>
@@ -4639,10 +4688,10 @@
         <v>43550</v>
       </c>
       <c r="K107" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106277</v>
       </c>
@@ -4674,10 +4723,10 @@
         <v>43551</v>
       </c>
       <c r="K108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>106279</v>
       </c>
@@ -4709,10 +4758,10 @@
         <v>43546</v>
       </c>
       <c r="K109" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>106280</v>
       </c>
@@ -4744,10 +4793,10 @@
         <v>43564</v>
       </c>
       <c r="K110" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>106281</v>
       </c>
@@ -4779,10 +4828,10 @@
         <v>43553</v>
       </c>
       <c r="K111" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>106283</v>
       </c>
@@ -4814,10 +4863,10 @@
         <v>43544</v>
       </c>
       <c r="K112" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>106285</v>
       </c>
@@ -4849,1482 +4898,1482 @@
         <v>43566</v>
       </c>
       <c r="K113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>106288</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114">
+        <v>816</v>
+      </c>
+      <c r="D114">
+        <v>348</v>
+      </c>
+      <c r="E114">
+        <v>323</v>
+      </c>
+      <c r="F114" t="s">
+        <v>82</v>
+      </c>
+      <c r="G114">
+        <v>712</v>
+      </c>
+      <c r="H114" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I114">
+        <v>517</v>
+      </c>
+      <c r="J114" s="2">
+        <v>43545</v>
+      </c>
+      <c r="K114" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
-      <c r="A114">
-        <v>106286</v>
-      </c>
-      <c r="B114" t="s">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>106289</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115">
+        <v>823</v>
+      </c>
+      <c r="D115">
+        <v>331</v>
+      </c>
+      <c r="E115">
+        <v>466</v>
+      </c>
+      <c r="F115" t="s">
+        <v>88</v>
+      </c>
+      <c r="G115">
+        <v>703</v>
+      </c>
+      <c r="H115" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I115">
+        <v>310</v>
+      </c>
+      <c r="J115" s="2">
+        <v>43560</v>
+      </c>
+      <c r="K115" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>106290</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116">
+        <v>823</v>
+      </c>
+      <c r="D116">
+        <v>655</v>
+      </c>
+      <c r="E116">
+        <v>664</v>
+      </c>
+      <c r="F116" t="s">
+        <v>79</v>
+      </c>
+      <c r="G116">
+        <v>1317</v>
+      </c>
+      <c r="H116" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I116">
+        <v>457</v>
+      </c>
+      <c r="J116" s="2">
+        <v>43546</v>
+      </c>
+      <c r="K116" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>106291</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>823</v>
+      </c>
+      <c r="D117">
+        <v>822</v>
+      </c>
+      <c r="E117">
+        <v>693</v>
+      </c>
+      <c r="F117" t="s">
+        <v>41</v>
+      </c>
+      <c r="G117">
+        <v>1179</v>
+      </c>
+      <c r="H117" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I117">
+        <v>504</v>
+      </c>
+      <c r="J117" s="2">
+        <v>43553</v>
+      </c>
+      <c r="K117" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>106292</v>
+      </c>
+      <c r="B118" t="s">
         <v>13</v>
       </c>
-      <c r="C114">
-        <v>823</v>
-      </c>
-      <c r="D114">
+      <c r="C118">
+        <v>831</v>
+      </c>
+      <c r="D118">
         <v>354</v>
       </c>
-      <c r="E114">
-        <v>412</v>
-      </c>
-      <c r="F114" t="s">
-        <v>88</v>
-      </c>
-      <c r="G114">
-        <v>388</v>
-      </c>
-      <c r="H114" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114" s="2">
-        <v>43593</v>
-      </c>
-      <c r="K114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115">
-        <v>106288</v>
-      </c>
-      <c r="B115" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115">
-        <v>816</v>
-      </c>
-      <c r="D115">
+      <c r="E118">
+        <v>363</v>
+      </c>
+      <c r="F118" t="s">
+        <v>30</v>
+      </c>
+      <c r="G118">
+        <v>701</v>
+      </c>
+      <c r="H118" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I118">
+        <v>272</v>
+      </c>
+      <c r="J118" s="2">
+        <v>43546</v>
+      </c>
+      <c r="K118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>106293</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>823</v>
+      </c>
+      <c r="D119">
         <v>348</v>
       </c>
-      <c r="E115">
+      <c r="E119">
         <v>323</v>
       </c>
-      <c r="F115" t="s">
-        <v>82</v>
-      </c>
-      <c r="G115">
-        <v>712</v>
-      </c>
-      <c r="H115" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I115">
+      <c r="F119" t="s">
+        <v>89</v>
+      </c>
+      <c r="G119">
+        <v>703</v>
+      </c>
+      <c r="H119" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I119">
         <v>517</v>
       </c>
-      <c r="J115" s="2">
-        <v>43545</v>
-      </c>
-      <c r="K115" t="s">
+      <c r="J119" s="2">
+        <v>43556</v>
+      </c>
+      <c r="K119" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
-      <c r="A116">
-        <v>106289</v>
-      </c>
-      <c r="B116" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116">
-        <v>823</v>
-      </c>
-      <c r="D116">
-        <v>331</v>
-      </c>
-      <c r="E116">
-        <v>466</v>
-      </c>
-      <c r="F116" t="s">
-        <v>89</v>
-      </c>
-      <c r="G116">
-        <v>703</v>
-      </c>
-      <c r="H116" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I116">
-        <v>310</v>
-      </c>
-      <c r="J116" s="2">
-        <v>43560</v>
-      </c>
-      <c r="K116" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117">
-        <v>106290</v>
-      </c>
-      <c r="B117" t="s">
-        <v>15</v>
-      </c>
-      <c r="C117">
-        <v>823</v>
-      </c>
-      <c r="D117">
-        <v>655</v>
-      </c>
-      <c r="E117">
-        <v>664</v>
-      </c>
-      <c r="F117" t="s">
-        <v>79</v>
-      </c>
-      <c r="G117">
-        <v>1317</v>
-      </c>
-      <c r="H117" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I117">
-        <v>457</v>
-      </c>
-      <c r="J117" s="2">
-        <v>43546</v>
-      </c>
-      <c r="K117" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118">
-        <v>106291</v>
-      </c>
-      <c r="B118" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118">
-        <v>823</v>
-      </c>
-      <c r="D118">
-        <v>822</v>
-      </c>
-      <c r="E118">
-        <v>693</v>
-      </c>
-      <c r="F118" t="s">
-        <v>41</v>
-      </c>
-      <c r="G118">
-        <v>1179</v>
-      </c>
-      <c r="H118" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I118">
-        <v>504</v>
-      </c>
-      <c r="J118" s="2">
-        <v>43553</v>
-      </c>
-      <c r="K118" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119">
-        <v>106292</v>
-      </c>
-      <c r="B119" t="s">
-        <v>13</v>
-      </c>
-      <c r="C119">
-        <v>831</v>
-      </c>
-      <c r="D119">
-        <v>354</v>
-      </c>
-      <c r="E119">
-        <v>363</v>
-      </c>
-      <c r="F119" t="s">
-        <v>30</v>
-      </c>
-      <c r="G119">
-        <v>701</v>
-      </c>
-      <c r="H119" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I119">
-        <v>272</v>
-      </c>
-      <c r="J119" s="2">
-        <v>43546</v>
-      </c>
-      <c r="K119" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>106293</v>
+        <v>106294</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C120">
-        <v>823</v>
+        <v>842</v>
       </c>
       <c r="D120">
-        <v>348</v>
+        <v>436</v>
       </c>
       <c r="E120">
-        <v>323</v>
+        <v>393</v>
       </c>
       <c r="F120" t="s">
         <v>90</v>
       </c>
       <c r="G120">
-        <v>703</v>
+        <v>568</v>
       </c>
       <c r="H120" s="2">
         <v>43542</v>
       </c>
       <c r="I120">
-        <v>517</v>
+        <v>311</v>
       </c>
       <c r="J120" s="2">
+        <v>43567</v>
+      </c>
+      <c r="K120" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>106296</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121">
+        <v>823</v>
+      </c>
+      <c r="D121">
+        <v>336</v>
+      </c>
+      <c r="E121">
+        <v>411</v>
+      </c>
+      <c r="F121" t="s">
+        <v>71</v>
+      </c>
+      <c r="G121">
+        <v>621</v>
+      </c>
+      <c r="H121" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I121">
+        <v>271</v>
+      </c>
+      <c r="J121" s="2">
+        <v>43558</v>
+      </c>
+      <c r="K121" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>106297</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122">
+        <v>819</v>
+      </c>
+      <c r="D122">
+        <v>331</v>
+      </c>
+      <c r="E122">
+        <v>323</v>
+      </c>
+      <c r="F122" t="s">
+        <v>91</v>
+      </c>
+      <c r="G122">
+        <v>470</v>
+      </c>
+      <c r="H122" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I122">
+        <v>872</v>
+      </c>
+      <c r="J122" s="2">
+        <v>43549</v>
+      </c>
+      <c r="K122" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>106298</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123">
+        <v>820</v>
+      </c>
+      <c r="D123">
+        <v>463</v>
+      </c>
+      <c r="E123">
+        <v>561</v>
+      </c>
+      <c r="F123" t="s">
+        <v>56</v>
+      </c>
+      <c r="G123">
+        <v>1072</v>
+      </c>
+      <c r="H123" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I123">
+        <v>515</v>
+      </c>
+      <c r="J123" s="2">
+        <v>43551</v>
+      </c>
+      <c r="K123" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>106299</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124">
+        <v>823</v>
+      </c>
+      <c r="D124">
+        <v>671</v>
+      </c>
+      <c r="E124">
+        <v>665</v>
+      </c>
+      <c r="F124" t="s">
+        <v>32</v>
+      </c>
+      <c r="G124">
+        <v>1317</v>
+      </c>
+      <c r="H124" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I124">
+        <v>935</v>
+      </c>
+      <c r="J124" s="2">
+        <v>43593</v>
+      </c>
+      <c r="K124" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>106300</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125">
+        <v>823</v>
+      </c>
+      <c r="D125">
+        <v>338</v>
+      </c>
+      <c r="E125">
+        <v>11</v>
+      </c>
+      <c r="F125" t="s">
+        <v>92</v>
+      </c>
+      <c r="G125">
+        <v>621</v>
+      </c>
+      <c r="H125" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I125">
+        <v>856</v>
+      </c>
+      <c r="J125" s="2">
+        <v>43565</v>
+      </c>
+      <c r="K125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>106301</v>
+      </c>
+      <c r="B126" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126">
+        <v>842</v>
+      </c>
+      <c r="D126">
+        <v>662</v>
+      </c>
+      <c r="E126">
+        <v>562</v>
+      </c>
+      <c r="F126" t="s">
+        <v>77</v>
+      </c>
+      <c r="G126">
+        <v>1175</v>
+      </c>
+      <c r="H126" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I126">
+        <v>454</v>
+      </c>
+      <c r="J126" s="2">
+        <v>43546</v>
+      </c>
+      <c r="K126" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>106302</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127">
+        <v>821</v>
+      </c>
+      <c r="D127">
+        <v>331</v>
+      </c>
+      <c r="E127">
+        <v>323</v>
+      </c>
+      <c r="F127" t="s">
+        <v>93</v>
+      </c>
+      <c r="G127">
+        <v>506</v>
+      </c>
+      <c r="H127" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I127">
+        <v>515</v>
+      </c>
+      <c r="J127" s="2">
         <v>43556</v>
       </c>
-      <c r="K120" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121">
-        <v>106294</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="K127" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>106303</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128">
+        <v>823</v>
+      </c>
+      <c r="D128">
+        <v>338</v>
+      </c>
+      <c r="E128">
+        <v>395</v>
+      </c>
+      <c r="F128" t="s">
+        <v>44</v>
+      </c>
+      <c r="G128">
+        <v>515</v>
+      </c>
+      <c r="H128" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I128">
+        <v>271</v>
+      </c>
+      <c r="J128" s="2">
+        <v>43558</v>
+      </c>
+      <c r="K128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>106304</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129">
+        <v>815</v>
+      </c>
+      <c r="D129">
+        <v>816</v>
+      </c>
+      <c r="E129">
+        <v>323</v>
+      </c>
+      <c r="F129" t="s">
+        <v>94</v>
+      </c>
+      <c r="G129">
+        <v>837</v>
+      </c>
+      <c r="H129" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I129">
+        <v>498</v>
+      </c>
+      <c r="J129" s="2">
+        <v>43546</v>
+      </c>
+      <c r="K129" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>106305</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130">
+        <v>823</v>
+      </c>
+      <c r="D130">
+        <v>346</v>
+      </c>
+      <c r="E130">
+        <v>466</v>
+      </c>
+      <c r="F130" t="s">
+        <v>88</v>
+      </c>
+      <c r="G130">
+        <v>515</v>
+      </c>
+      <c r="H130" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I130">
+        <v>271</v>
+      </c>
+      <c r="J130" s="2">
+        <v>43564</v>
+      </c>
+      <c r="K130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>106306</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131">
+        <v>823</v>
+      </c>
+      <c r="D131">
+        <v>338</v>
+      </c>
+      <c r="E131">
+        <v>323</v>
+      </c>
+      <c r="F131" t="s">
+        <v>95</v>
+      </c>
+      <c r="G131">
+        <v>489</v>
+      </c>
+      <c r="H131" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I131">
+        <v>272</v>
+      </c>
+      <c r="J131" s="2">
+        <v>43560</v>
+      </c>
+      <c r="K131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>106307</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132">
+        <v>823</v>
+      </c>
+      <c r="D132">
+        <v>346</v>
+      </c>
+      <c r="E132">
+        <v>362</v>
+      </c>
+      <c r="F132" t="s">
+        <v>31</v>
+      </c>
+      <c r="G132">
+        <v>388</v>
+      </c>
+      <c r="H132" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I132">
+        <v>271</v>
+      </c>
+      <c r="J132" s="2">
+        <v>43564</v>
+      </c>
+      <c r="K132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>106308</v>
+      </c>
+      <c r="B133" t="s">
         <v>17</v>
       </c>
-      <c r="C121">
+      <c r="C133">
         <v>842</v>
       </c>
-      <c r="D121">
-        <v>436</v>
-      </c>
-      <c r="E121">
-        <v>393</v>
-      </c>
-      <c r="F121" t="s">
-        <v>91</v>
-      </c>
-      <c r="G121">
-        <v>568</v>
-      </c>
-      <c r="H121" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I121">
-        <v>311</v>
-      </c>
-      <c r="J121" s="2">
-        <v>43567</v>
-      </c>
-      <c r="K121" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122">
-        <v>106296</v>
-      </c>
-      <c r="B122" t="s">
-        <v>13</v>
-      </c>
-      <c r="C122">
-        <v>823</v>
-      </c>
-      <c r="D122">
-        <v>336</v>
-      </c>
-      <c r="E122">
-        <v>411</v>
-      </c>
-      <c r="F122" t="s">
-        <v>71</v>
-      </c>
-      <c r="G122">
-        <v>621</v>
-      </c>
-      <c r="H122" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I122">
-        <v>271</v>
-      </c>
-      <c r="J122" s="2">
-        <v>43558</v>
-      </c>
-      <c r="K122" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123">
-        <v>106297</v>
-      </c>
-      <c r="B123" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123">
-        <v>819</v>
-      </c>
-      <c r="D123">
-        <v>331</v>
-      </c>
-      <c r="E123">
-        <v>323</v>
-      </c>
-      <c r="F123" t="s">
-        <v>92</v>
-      </c>
-      <c r="G123">
-        <v>470</v>
-      </c>
-      <c r="H123" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I123">
-        <v>872</v>
-      </c>
-      <c r="J123" s="2">
-        <v>43549</v>
-      </c>
-      <c r="K123" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124">
-        <v>106298</v>
-      </c>
-      <c r="B124" t="s">
-        <v>13</v>
-      </c>
-      <c r="C124">
-        <v>820</v>
-      </c>
-      <c r="D124">
-        <v>463</v>
-      </c>
-      <c r="E124">
-        <v>561</v>
-      </c>
-      <c r="F124" t="s">
-        <v>56</v>
-      </c>
-      <c r="G124">
-        <v>1072</v>
-      </c>
-      <c r="H124" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I124">
-        <v>515</v>
-      </c>
-      <c r="J124" s="2">
-        <v>43551</v>
-      </c>
-      <c r="K124" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125">
-        <v>106299</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="D133">
+        <v>443</v>
+      </c>
+      <c r="E133">
+        <v>689</v>
+      </c>
+      <c r="F133" t="s">
+        <v>96</v>
+      </c>
+      <c r="G133">
+        <v>564</v>
+      </c>
+      <c r="H133" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I133">
+        <v>314</v>
+      </c>
+      <c r="J133" s="2">
+        <v>43565</v>
+      </c>
+      <c r="K133" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>106309</v>
+      </c>
+      <c r="B134" t="s">
         <v>15</v>
       </c>
-      <c r="C125">
-        <v>823</v>
-      </c>
-      <c r="D125">
-        <v>671</v>
-      </c>
-      <c r="E125">
-        <v>665</v>
-      </c>
-      <c r="F125" t="s">
-        <v>32</v>
-      </c>
-      <c r="G125">
-        <v>1317</v>
-      </c>
-      <c r="H125" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I125">
-        <v>935</v>
-      </c>
-      <c r="J125" s="2">
-        <v>43593</v>
-      </c>
-      <c r="K125" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126">
-        <v>106300</v>
-      </c>
-      <c r="B126" t="s">
-        <v>13</v>
-      </c>
-      <c r="C126">
-        <v>823</v>
-      </c>
-      <c r="D126">
-        <v>338</v>
-      </c>
-      <c r="E126">
-        <v>11</v>
-      </c>
-      <c r="F126" t="s">
-        <v>93</v>
-      </c>
-      <c r="G126">
-        <v>621</v>
-      </c>
-      <c r="H126" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I126">
-        <v>856</v>
-      </c>
-      <c r="J126" s="2">
-        <v>43565</v>
-      </c>
-      <c r="K126" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127">
-        <v>106301</v>
-      </c>
-      <c r="B127" t="s">
-        <v>25</v>
-      </c>
-      <c r="C127">
-        <v>842</v>
-      </c>
-      <c r="D127">
-        <v>662</v>
-      </c>
-      <c r="E127">
-        <v>562</v>
-      </c>
-      <c r="F127" t="s">
-        <v>77</v>
-      </c>
-      <c r="G127">
-        <v>1175</v>
-      </c>
-      <c r="H127" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I127">
-        <v>454</v>
-      </c>
-      <c r="J127" s="2">
-        <v>43546</v>
-      </c>
-      <c r="K127" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128">
-        <v>106302</v>
-      </c>
-      <c r="B128" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128">
-        <v>821</v>
-      </c>
-      <c r="D128">
-        <v>331</v>
-      </c>
-      <c r="E128">
-        <v>323</v>
-      </c>
-      <c r="F128" t="s">
-        <v>94</v>
-      </c>
-      <c r="G128">
-        <v>506</v>
-      </c>
-      <c r="H128" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I128">
-        <v>515</v>
-      </c>
-      <c r="J128" s="2">
-        <v>43556</v>
-      </c>
-      <c r="K128" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129">
-        <v>106303</v>
-      </c>
-      <c r="B129" t="s">
-        <v>13</v>
-      </c>
-      <c r="C129">
-        <v>823</v>
-      </c>
-      <c r="D129">
-        <v>338</v>
-      </c>
-      <c r="E129">
-        <v>395</v>
-      </c>
-      <c r="F129" t="s">
-        <v>44</v>
-      </c>
-      <c r="G129">
-        <v>515</v>
-      </c>
-      <c r="H129" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I129">
-        <v>271</v>
-      </c>
-      <c r="J129" s="2">
-        <v>43558</v>
-      </c>
-      <c r="K129" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130">
-        <v>106304</v>
-      </c>
-      <c r="B130" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130">
-        <v>815</v>
-      </c>
-      <c r="D130">
-        <v>816</v>
-      </c>
-      <c r="E130">
-        <v>323</v>
-      </c>
-      <c r="F130" t="s">
-        <v>95</v>
-      </c>
-      <c r="G130">
-        <v>837</v>
-      </c>
-      <c r="H130" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I130">
-        <v>498</v>
-      </c>
-      <c r="J130" s="2">
-        <v>43546</v>
-      </c>
-      <c r="K130" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131">
-        <v>106305</v>
-      </c>
-      <c r="B131" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131">
-        <v>823</v>
-      </c>
-      <c r="D131">
-        <v>346</v>
-      </c>
-      <c r="E131">
-        <v>466</v>
-      </c>
-      <c r="F131" t="s">
-        <v>89</v>
-      </c>
-      <c r="G131">
-        <v>515</v>
-      </c>
-      <c r="H131" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I131">
-        <v>271</v>
-      </c>
-      <c r="J131" s="2">
-        <v>43564</v>
-      </c>
-      <c r="K131" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132">
-        <v>106306</v>
-      </c>
-      <c r="B132" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132">
-        <v>823</v>
-      </c>
-      <c r="D132">
-        <v>338</v>
-      </c>
-      <c r="E132">
-        <v>323</v>
-      </c>
-      <c r="F132" t="s">
-        <v>96</v>
-      </c>
-      <c r="G132">
-        <v>489</v>
-      </c>
-      <c r="H132" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I132">
-        <v>272</v>
-      </c>
-      <c r="J132" s="2">
-        <v>43560</v>
-      </c>
-      <c r="K132" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133">
-        <v>106307</v>
-      </c>
-      <c r="B133" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133">
-        <v>823</v>
-      </c>
-      <c r="D133">
-        <v>346</v>
-      </c>
-      <c r="E133">
-        <v>362</v>
-      </c>
-      <c r="F133" t="s">
-        <v>31</v>
-      </c>
-      <c r="G133">
-        <v>388</v>
-      </c>
-      <c r="H133" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I133">
-        <v>271</v>
-      </c>
-      <c r="J133" s="2">
-        <v>43564</v>
-      </c>
-      <c r="K133" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134">
-        <v>106308</v>
-      </c>
-      <c r="B134" t="s">
-        <v>17</v>
-      </c>
       <c r="C134">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="D134">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="E134">
-        <v>689</v>
+        <v>328</v>
       </c>
       <c r="F134" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="G134">
-        <v>564</v>
+        <v>387</v>
       </c>
       <c r="H134" s="2">
         <v>43542</v>
       </c>
       <c r="I134">
-        <v>314</v>
+        <v>516</v>
       </c>
       <c r="J134" s="2">
-        <v>43565</v>
+        <v>43563</v>
       </c>
       <c r="K134" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>106309</v>
+        <v>106310</v>
       </c>
       <c r="B135" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C135">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D135">
-        <v>422</v>
+        <v>821</v>
       </c>
       <c r="E135">
-        <v>328</v>
+        <v>690</v>
       </c>
       <c r="F135" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G135">
+        <v>1520</v>
+      </c>
+      <c r="H135" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I135">
+        <v>503</v>
+      </c>
+      <c r="J135" s="2">
+        <v>43550</v>
+      </c>
+      <c r="K135" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>106311</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136">
+        <v>823</v>
+      </c>
+      <c r="D136">
+        <v>346</v>
+      </c>
+      <c r="E136">
+        <v>401</v>
+      </c>
+      <c r="F136" t="s">
+        <v>97</v>
+      </c>
+      <c r="G136">
         <v>387</v>
       </c>
-      <c r="H135" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I135">
+      <c r="H136" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I136">
         <v>516</v>
       </c>
-      <c r="J135" s="2">
-        <v>43563</v>
-      </c>
-      <c r="K135" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136">
-        <v>106310</v>
-      </c>
-      <c r="B136" t="s">
-        <v>17</v>
-      </c>
-      <c r="C136">
-        <v>827</v>
-      </c>
-      <c r="D136">
-        <v>821</v>
-      </c>
-      <c r="E136">
-        <v>690</v>
-      </c>
-      <c r="F136" t="s">
-        <v>40</v>
-      </c>
-      <c r="G136">
-        <v>1520</v>
-      </c>
-      <c r="H136" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I136">
-        <v>503</v>
-      </c>
       <c r="J136" s="2">
-        <v>43550</v>
+        <v>43567</v>
       </c>
       <c r="K136" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>106311</v>
+        <v>106312</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C137">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D137">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E137">
-        <v>401</v>
+        <v>323</v>
       </c>
       <c r="F137" t="s">
         <v>98</v>
       </c>
       <c r="G137">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="H137" s="2">
         <v>43542</v>
       </c>
       <c r="I137">
-        <v>516</v>
+        <v>271</v>
       </c>
       <c r="J137" s="2">
-        <v>43567</v>
+        <v>43581</v>
       </c>
       <c r="K137" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>106312</v>
+        <v>106313</v>
       </c>
       <c r="B138" t="s">
         <v>13</v>
       </c>
       <c r="C138">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D138">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="E138">
+        <v>395</v>
+      </c>
+      <c r="F138" t="s">
+        <v>44</v>
+      </c>
+      <c r="G138">
+        <v>732</v>
+      </c>
+      <c r="H138" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I138">
+        <v>272</v>
+      </c>
+      <c r="J138" s="2">
+        <v>43560</v>
+      </c>
+      <c r="K138" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>106314</v>
+      </c>
+      <c r="B139" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139">
+        <v>827</v>
+      </c>
+      <c r="D139">
+        <v>821</v>
+      </c>
+      <c r="E139">
+        <v>689</v>
+      </c>
+      <c r="F139" t="s">
+        <v>96</v>
+      </c>
+      <c r="G139">
+        <v>1520</v>
+      </c>
+      <c r="H139" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I139">
+        <v>503</v>
+      </c>
+      <c r="J139" s="2">
+        <v>43550</v>
+      </c>
+      <c r="K139" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>106316</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140">
+        <v>519</v>
+      </c>
+      <c r="D140">
+        <v>822</v>
+      </c>
+      <c r="E140">
+        <v>690</v>
+      </c>
+      <c r="F140" t="s">
+        <v>40</v>
+      </c>
+      <c r="G140">
+        <v>501</v>
+      </c>
+      <c r="H140" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I140">
+        <v>504</v>
+      </c>
+      <c r="J140" s="2">
+        <v>43553</v>
+      </c>
+      <c r="K140" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>106317</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141">
+        <v>821</v>
+      </c>
+      <c r="D141">
+        <v>331</v>
+      </c>
+      <c r="E141">
         <v>323</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F141" t="s">
         <v>99</v>
       </c>
-      <c r="G138">
-        <v>355</v>
-      </c>
-      <c r="H138" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I138">
-        <v>271</v>
-      </c>
-      <c r="J138" s="2">
-        <v>43581</v>
-      </c>
-      <c r="K138" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139">
-        <v>106313</v>
-      </c>
-      <c r="B139" t="s">
+      <c r="G141">
+        <v>506</v>
+      </c>
+      <c r="H141" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I141">
+        <v>515</v>
+      </c>
+      <c r="J141" s="2">
+        <v>43556</v>
+      </c>
+      <c r="K141" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>106318</v>
+      </c>
+      <c r="B142" t="s">
         <v>13</v>
       </c>
-      <c r="C139">
-        <v>823</v>
-      </c>
-      <c r="D139">
-        <v>422</v>
-      </c>
-      <c r="E139">
-        <v>395</v>
-      </c>
-      <c r="F139" t="s">
-        <v>44</v>
-      </c>
-      <c r="G139">
-        <v>732</v>
-      </c>
-      <c r="H139" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I139">
-        <v>272</v>
-      </c>
-      <c r="J139" s="2">
+      <c r="C142">
+        <v>823</v>
+      </c>
+      <c r="D142">
+        <v>336</v>
+      </c>
+      <c r="E142">
+        <v>466</v>
+      </c>
+      <c r="F142" t="s">
+        <v>88</v>
+      </c>
+      <c r="G142">
+        <v>704</v>
+      </c>
+      <c r="H142" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I142">
+        <v>856</v>
+      </c>
+      <c r="J142" s="2">
         <v>43560</v>
       </c>
-      <c r="K139" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140">
-        <v>106314</v>
-      </c>
-      <c r="B140" t="s">
-        <v>17</v>
-      </c>
-      <c r="C140">
-        <v>827</v>
-      </c>
-      <c r="D140">
-        <v>821</v>
-      </c>
-      <c r="E140">
-        <v>689</v>
-      </c>
-      <c r="F140" t="s">
-        <v>97</v>
-      </c>
-      <c r="G140">
-        <v>1520</v>
-      </c>
-      <c r="H140" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I140">
-        <v>503</v>
-      </c>
-      <c r="J140" s="2">
-        <v>43550</v>
-      </c>
-      <c r="K140" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="A141">
-        <v>106316</v>
-      </c>
-      <c r="B141" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141">
-        <v>519</v>
-      </c>
-      <c r="D141">
-        <v>822</v>
-      </c>
-      <c r="E141">
-        <v>690</v>
-      </c>
-      <c r="F141" t="s">
-        <v>40</v>
-      </c>
-      <c r="G141">
-        <v>501</v>
-      </c>
-      <c r="H141" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I141">
-        <v>504</v>
-      </c>
-      <c r="J141" s="2">
-        <v>43553</v>
-      </c>
-      <c r="K141" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142">
-        <v>106317</v>
-      </c>
-      <c r="B142" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142">
-        <v>821</v>
-      </c>
-      <c r="D142">
-        <v>331</v>
-      </c>
-      <c r="E142">
+      <c r="K142" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>106320</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143">
+        <v>848</v>
+      </c>
+      <c r="D143">
+        <v>426</v>
+      </c>
+      <c r="E143">
         <v>323</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F143" t="s">
         <v>100</v>
       </c>
-      <c r="G142">
-        <v>506</v>
-      </c>
-      <c r="H142" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I142">
-        <v>515</v>
-      </c>
-      <c r="J142" s="2">
-        <v>43556</v>
-      </c>
-      <c r="K142" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
-      <c r="A143">
-        <v>106318</v>
-      </c>
-      <c r="B143" t="s">
+      <c r="G143">
+        <v>450</v>
+      </c>
+      <c r="H143" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I143">
+        <v>318</v>
+      </c>
+      <c r="J143" s="2">
+        <v>43545</v>
+      </c>
+      <c r="K143" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>106321</v>
+      </c>
+      <c r="B144" t="s">
         <v>13</v>
       </c>
-      <c r="C143">
-        <v>823</v>
-      </c>
-      <c r="D143">
-        <v>336</v>
-      </c>
-      <c r="E143">
-        <v>466</v>
-      </c>
-      <c r="F143" t="s">
-        <v>89</v>
-      </c>
-      <c r="G143">
-        <v>704</v>
-      </c>
-      <c r="H143" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I143">
-        <v>856</v>
-      </c>
-      <c r="J143" s="2">
-        <v>43560</v>
-      </c>
-      <c r="K143" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="A144">
-        <v>106320</v>
-      </c>
-      <c r="B144" t="s">
-        <v>12</v>
-      </c>
       <c r="C144">
-        <v>848</v>
+        <v>823</v>
       </c>
       <c r="D144">
-        <v>426</v>
+        <v>352</v>
       </c>
       <c r="E144">
-        <v>323</v>
+        <v>1079</v>
       </c>
       <c r="F144" t="s">
         <v>101</v>
       </c>
       <c r="G144">
-        <v>450</v>
+        <v>387</v>
       </c>
       <c r="H144" s="2">
         <v>43542</v>
       </c>
       <c r="I144">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="J144" s="2">
-        <v>43545</v>
+        <v>43565</v>
       </c>
       <c r="K144" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>106321</v>
+        <v>106322</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C145">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="D145">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="E145">
-        <v>1079</v>
+        <v>323</v>
       </c>
       <c r="F145" t="s">
         <v>102</v>
       </c>
       <c r="G145">
-        <v>387</v>
+        <v>700</v>
       </c>
       <c r="H145" s="2">
         <v>43542</v>
       </c>
       <c r="I145">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="J145" s="2">
-        <v>43565</v>
+        <v>43545</v>
       </c>
       <c r="K145" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>106322</v>
+        <v>106323</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C146">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="D146">
         <v>331</v>
       </c>
       <c r="E146">
-        <v>323</v>
+        <v>392</v>
       </c>
       <c r="F146" t="s">
         <v>103</v>
       </c>
       <c r="G146">
-        <v>700</v>
+        <v>516</v>
       </c>
       <c r="H146" s="2">
         <v>43542</v>
       </c>
       <c r="I146">
-        <v>272</v>
+        <v>872</v>
       </c>
       <c r="J146" s="2">
-        <v>43545</v>
+        <v>43571</v>
       </c>
       <c r="K146" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>106323</v>
+        <v>106324</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C147">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="D147">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="E147">
-        <v>392</v>
+        <v>1078</v>
       </c>
       <c r="F147" t="s">
+        <v>26</v>
+      </c>
+      <c r="G147">
+        <v>387</v>
+      </c>
+      <c r="H147" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I147">
+        <v>515</v>
+      </c>
+      <c r="J147" s="2">
+        <v>43566</v>
+      </c>
+      <c r="K147" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>106325</v>
+      </c>
+      <c r="B148" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148">
+        <v>816</v>
+      </c>
+      <c r="D148">
+        <v>354</v>
+      </c>
+      <c r="E148">
+        <v>323</v>
+      </c>
+      <c r="F148" t="s">
         <v>104</v>
       </c>
-      <c r="G147">
-        <v>516</v>
-      </c>
-      <c r="H147" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I147">
-        <v>872</v>
-      </c>
-      <c r="J147" s="2">
-        <v>43571</v>
-      </c>
-      <c r="K147" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
-      <c r="A148">
-        <v>106324</v>
-      </c>
-      <c r="B148" t="s">
+      <c r="G148">
+        <v>1210</v>
+      </c>
+      <c r="H148" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I148">
+        <v>271</v>
+      </c>
+      <c r="J148" s="2">
+        <v>43559</v>
+      </c>
+      <c r="K148" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>106328</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149">
+        <v>823</v>
+      </c>
+      <c r="D149">
+        <v>822</v>
+      </c>
+      <c r="E149">
+        <v>689</v>
+      </c>
+      <c r="F149" t="s">
+        <v>96</v>
+      </c>
+      <c r="G149">
+        <v>1179</v>
+      </c>
+      <c r="H149" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I149">
+        <v>504</v>
+      </c>
+      <c r="J149" s="2">
+        <v>43553</v>
+      </c>
+      <c r="K149" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>106329</v>
+      </c>
+      <c r="B150" t="s">
         <v>15</v>
       </c>
-      <c r="C148">
+      <c r="C150">
         <v>828</v>
       </c>
-      <c r="D148">
+      <c r="D150">
         <v>349</v>
       </c>
-      <c r="E148">
-        <v>1078</v>
-      </c>
-      <c r="F148" t="s">
-        <v>26</v>
-      </c>
-      <c r="G148">
-        <v>387</v>
-      </c>
-      <c r="H148" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I148">
+      <c r="E150">
+        <v>1079</v>
+      </c>
+      <c r="F150" t="s">
+        <v>101</v>
+      </c>
+      <c r="G150">
+        <v>384</v>
+      </c>
+      <c r="H150" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I150">
         <v>515</v>
       </c>
-      <c r="J148" s="2">
-        <v>43566</v>
-      </c>
-      <c r="K148" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
-      <c r="A149">
-        <v>106325</v>
-      </c>
-      <c r="B149" t="s">
+      <c r="J150" s="2">
+        <v>43565</v>
+      </c>
+      <c r="K150" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>106331</v>
+      </c>
+      <c r="B151" t="s">
         <v>14</v>
       </c>
-      <c r="C149">
+      <c r="C151">
         <v>816</v>
       </c>
-      <c r="D149">
-        <v>354</v>
-      </c>
-      <c r="E149">
+      <c r="D151">
+        <v>338</v>
+      </c>
+      <c r="E151">
+        <v>575</v>
+      </c>
+      <c r="F151" t="s">
+        <v>105</v>
+      </c>
+      <c r="G151">
+        <v>1210</v>
+      </c>
+      <c r="H151" s="2">
+        <v>43542</v>
+      </c>
+      <c r="I151">
+        <v>856</v>
+      </c>
+      <c r="J151" s="2">
+        <v>43546</v>
+      </c>
+      <c r="K151" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>106332</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152">
+        <v>828</v>
+      </c>
+      <c r="D152">
+        <v>348</v>
+      </c>
+      <c r="E152">
         <v>323</v>
-      </c>
-      <c r="F149" t="s">
-        <v>105</v>
-      </c>
-      <c r="G149">
-        <v>1210</v>
-      </c>
-      <c r="H149" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I149">
-        <v>271</v>
-      </c>
-      <c r="J149" s="2">
-        <v>43559</v>
-      </c>
-      <c r="K149" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="A150">
-        <v>106328</v>
-      </c>
-      <c r="B150" t="s">
-        <v>12</v>
-      </c>
-      <c r="C150">
-        <v>823</v>
-      </c>
-      <c r="D150">
-        <v>822</v>
-      </c>
-      <c r="E150">
-        <v>689</v>
-      </c>
-      <c r="F150" t="s">
-        <v>97</v>
-      </c>
-      <c r="G150">
-        <v>1179</v>
-      </c>
-      <c r="H150" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I150">
-        <v>504</v>
-      </c>
-      <c r="J150" s="2">
-        <v>43553</v>
-      </c>
-      <c r="K150" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151">
-        <v>106329</v>
-      </c>
-      <c r="B151" t="s">
-        <v>15</v>
-      </c>
-      <c r="C151">
-        <v>828</v>
-      </c>
-      <c r="D151">
-        <v>349</v>
-      </c>
-      <c r="E151">
-        <v>1079</v>
-      </c>
-      <c r="F151" t="s">
-        <v>102</v>
-      </c>
-      <c r="G151">
-        <v>384</v>
-      </c>
-      <c r="H151" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I151">
-        <v>515</v>
-      </c>
-      <c r="J151" s="2">
-        <v>43565</v>
-      </c>
-      <c r="K151" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152">
-        <v>106331</v>
-      </c>
-      <c r="B152" t="s">
-        <v>14</v>
-      </c>
-      <c r="C152">
-        <v>816</v>
-      </c>
-      <c r="D152">
-        <v>338</v>
-      </c>
-      <c r="E152">
-        <v>575</v>
       </c>
       <c r="F152" t="s">
         <v>106</v>
       </c>
       <c r="G152">
-        <v>1210</v>
+        <v>453</v>
       </c>
       <c r="H152" s="2">
         <v>43542</v>
       </c>
       <c r="I152">
-        <v>856</v>
+        <v>513</v>
       </c>
       <c r="J152" s="2">
-        <v>43546</v>
+        <v>43578</v>
       </c>
       <c r="K152" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>106332</v>
+        <v>106333</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C153">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D153">
-        <v>348</v>
+        <v>822</v>
       </c>
       <c r="E153">
-        <v>323</v>
+        <v>689</v>
       </c>
       <c r="F153" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G153">
-        <v>453</v>
+        <v>1179</v>
       </c>
       <c r="H153" s="2">
         <v>43542</v>
       </c>
       <c r="I153">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="J153" s="2">
-        <v>43578</v>
+        <v>43553</v>
       </c>
       <c r="K153" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>106333</v>
+        <v>106334</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C154">
-        <v>821</v>
+        <v>848</v>
       </c>
       <c r="D154">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="E154">
-        <v>689</v>
+        <v>795</v>
       </c>
       <c r="F154" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G154">
-        <v>1179</v>
+        <v>824</v>
       </c>
       <c r="H154" s="2">
         <v>43542</v>
       </c>
       <c r="I154">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="J154" s="2">
         <v>43553</v>
       </c>
       <c r="K154" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>106334</v>
+        <v>106335</v>
       </c>
       <c r="B155" t="s">
         <v>12</v>
       </c>
       <c r="C155">
-        <v>848</v>
+        <v>823</v>
       </c>
       <c r="D155">
-        <v>811</v>
+        <v>331</v>
       </c>
       <c r="E155">
-        <v>795</v>
+        <v>410</v>
       </c>
       <c r="F155" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G155">
-        <v>824</v>
+        <v>387</v>
       </c>
       <c r="H155" s="2">
         <v>43542</v>
       </c>
       <c r="I155">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="J155" s="2">
-        <v>43553</v>
+        <v>43572</v>
       </c>
       <c r="K155" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>106335</v>
+        <v>106336</v>
       </c>
       <c r="B156" t="s">
         <v>12</v>
@@ -6333,133 +6382,98 @@
         <v>823</v>
       </c>
       <c r="D156">
-        <v>331</v>
+        <v>422</v>
       </c>
       <c r="E156">
-        <v>410</v>
+        <v>323</v>
       </c>
       <c r="F156" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G156">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H156" s="2">
         <v>43542</v>
       </c>
       <c r="I156">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="J156" s="2">
-        <v>43572</v>
+        <v>43580</v>
       </c>
       <c r="K156" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>106336</v>
+        <v>106337</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C157">
-        <v>823</v>
+        <v>842</v>
       </c>
       <c r="D157">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E157">
-        <v>323</v>
+        <v>562</v>
       </c>
       <c r="F157" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="G157">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="H157" s="2">
         <v>43542</v>
       </c>
       <c r="I157">
-        <v>516</v>
+        <v>406</v>
       </c>
       <c r="J157" s="2">
-        <v>43580</v>
+        <v>43549</v>
       </c>
       <c r="K157" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>106337</v>
+        <v>106339</v>
       </c>
       <c r="B158" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C158">
         <v>842</v>
       </c>
       <c r="D158">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="E158">
-        <v>562</v>
+        <v>323</v>
       </c>
       <c r="F158" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="G158">
-        <v>355</v>
+        <v>700</v>
       </c>
       <c r="H158" s="2">
         <v>43542</v>
       </c>
       <c r="I158">
-        <v>406</v>
+        <v>318</v>
       </c>
       <c r="J158" s="2">
-        <v>43549</v>
+        <v>43543</v>
       </c>
       <c r="K158" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159">
-        <v>106339</v>
-      </c>
-      <c r="B159" t="s">
-        <v>17</v>
-      </c>
-      <c r="C159">
-        <v>842</v>
-      </c>
-      <c r="D159">
-        <v>461</v>
-      </c>
-      <c r="E159">
-        <v>323</v>
-      </c>
-      <c r="F159" t="s">
-        <v>109</v>
-      </c>
-      <c r="G159">
-        <v>700</v>
-      </c>
-      <c r="H159" s="2">
-        <v>43542</v>
-      </c>
-      <c r="I159">
-        <v>318</v>
-      </c>
-      <c r="J159" s="2">
-        <v>43543</v>
-      </c>
-      <c r="K159" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
